--- a/data/trans_orig/P78_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C97A16B-4F34-4E9B-81E2-47C659BC98AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE543F2E-0AD1-4466-B79C-5755679E6621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5644AAE5-DDB6-4DA9-8F46-066538B911ED}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3429DE6F-2D0E-4BF7-8AED-675C246D1EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>54,02%</t>
   </si>
   <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
   <si>
     <t>25,06%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>45,98%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
   </si>
   <si>
     <t>74,94%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>73,02%</t>
   </si>
   <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>77,4%</t>
   </si>
   <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
   </si>
   <si>
     <t>66,91%</t>
   </si>
   <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>22,6%</t>
   </si>
   <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
   </si>
   <si>
     <t>37,16%</t>
   </si>
   <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
   </si>
   <si>
     <t>33,09%</t>
   </si>
   <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>79,49%</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>82,72%</t>
   </si>
   <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
   </si>
   <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
   </si>
   <si>
     <t>54,15%</t>
   </si>
   <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
   </si>
   <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>45,85%</t>
   </si>
   <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC298CC7-F490-4FA3-9ED8-63602D62AB8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B48986E-DA0C-4EAE-B4A8-A12AEEEE7EC0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE543F2E-0AD1-4466-B79C-5755679E6621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C87FDFF1-993C-4946-8594-16C65835C929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3429DE6F-2D0E-4BF7-8AED-675C246D1EAD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC7820F8-3BCA-4D17-ADE8-D2EC31F462F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B48986E-DA0C-4EAE-B4A8-A12AEEEE7EC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD6F5B0-F209-4CD8-B117-BD3C21ECA0BA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C87FDFF1-993C-4946-8594-16C65835C929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA70BDB1-4985-4F76-8CFC-0C508410A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC7820F8-3BCA-4D17-ADE8-D2EC31F462F6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F065FB61-AB52-4A70-8A3D-32E7FAD500A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
-    <t>Población según si trabajan actualmente en 2023 (Tasa respuesta: 29,19%)</t>
+    <t>Población según si la persona sustentadora principal trabaja actualmente en 2023 (Tasa respuesta: 66,62%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD6F5B0-F209-4CD8-B117-BD3C21ECA0BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24533B39-5B47-43F7-B4A9-56D8AA1AA746}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -829,10 +829,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="D4" s="7">
-        <v>18683</v>
+        <v>147155</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -844,10 +844,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="I4" s="7">
-        <v>122176</v>
+        <v>187883</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -859,10 +859,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>201</v>
+        <v>424</v>
       </c>
       <c r="N4" s="7">
-        <v>140860</v>
+        <v>335038</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>15905</v>
+        <v>15904</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -913,7 +913,7 @@
         <v>654</v>
       </c>
       <c r="N5" s="7">
-        <v>381277</v>
+        <v>381278</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -931,10 +931,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="D6" s="7">
-        <v>34588</v>
+        <v>163059</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -946,10 +946,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>820</v>
+        <v>904</v>
       </c>
       <c r="I6" s="7">
-        <v>487549</v>
+        <v>553256</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -961,10 +961,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>855</v>
+        <v>1078</v>
       </c>
       <c r="N6" s="7">
-        <v>522137</v>
+        <v>716316</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -984,10 +984,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>178</v>
+        <v>1206</v>
       </c>
       <c r="D7" s="7">
-        <v>318583</v>
+        <v>1454023</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -999,10 +999,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>773</v>
+        <v>1802</v>
       </c>
       <c r="I7" s="7">
-        <v>666863</v>
+        <v>1416365</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1014,10 +1014,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>951</v>
+        <v>3008</v>
       </c>
       <c r="N7" s="7">
-        <v>985447</v>
+        <v>2870388</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1086,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>240</v>
+        <v>1268</v>
       </c>
       <c r="D9" s="7">
-        <v>411598</v>
+        <v>1547038</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1101,10 +1101,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1196</v>
+        <v>2225</v>
       </c>
       <c r="I9" s="7">
-        <v>1061279</v>
+        <v>1810781</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1116,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1436</v>
+        <v>3493</v>
       </c>
       <c r="N9" s="7">
-        <v>1472878</v>
+        <v>3357819</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1139,10 +1139,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>460</v>
       </c>
       <c r="D10" s="7">
-        <v>58687</v>
+        <v>497345</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1154,10 +1154,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>164</v>
+        <v>733</v>
       </c>
       <c r="I10" s="7">
-        <v>143978</v>
+        <v>544819</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1169,10 +1169,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>207</v>
+        <v>1193</v>
       </c>
       <c r="N10" s="7">
-        <v>202665</v>
+        <v>1042164</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1241,10 +1241,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>470</v>
       </c>
       <c r="D12" s="7">
-        <v>73833</v>
+        <v>512491</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1256,10 +1256,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>202</v>
+        <v>771</v>
       </c>
       <c r="I12" s="7">
-        <v>174054</v>
+        <v>574895</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1271,10 +1271,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>255</v>
+        <v>1241</v>
       </c>
       <c r="N12" s="7">
-        <v>247887</v>
+        <v>1087386</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1294,10 +1294,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>240</v>
+        <v>1824</v>
       </c>
       <c r="D13" s="7">
-        <v>395954</v>
+        <v>2098522</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1309,10 +1309,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>1119</v>
+        <v>2801</v>
       </c>
       <c r="I13" s="7">
-        <v>933017</v>
+        <v>2149067</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1324,10 +1324,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>1359</v>
+        <v>4625</v>
       </c>
       <c r="N13" s="7">
-        <v>1328971</v>
+        <v>4247589</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1396,10 +1396,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>328</v>
+        <v>1912</v>
       </c>
       <c r="D15" s="7">
-        <v>520020</v>
+        <v>2222588</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1411,10 +1411,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>2218</v>
+        <v>3900</v>
       </c>
       <c r="I15" s="7">
-        <v>1722882</v>
+        <v>2938932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1426,10 +1426,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>2546</v>
+        <v>5812</v>
       </c>
       <c r="N15" s="7">
-        <v>2242902</v>
+        <v>5161520</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P78_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA70BDB1-4985-4F76-8CFC-0C508410A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6909579E-F87C-45E5-AE60-0153C4F334AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F065FB61-AB52-4A70-8A3D-32E7FAD500A7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8427F66C-43F9-4EF8-8C02-5B7CE40AEB58}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
   </si>
   <si>
     <t>69,53%</t>
   </si>
   <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24533B39-5B47-43F7-B4A9-56D8AA1AA746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA23A31-A393-4073-8531-5D71BF92665E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>158</v>
       </c>
       <c r="D4" s="7">
-        <v>147155</v>
+        <v>144821</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>266</v>
       </c>
       <c r="I4" s="7">
-        <v>187883</v>
+        <v>168668</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>424</v>
       </c>
       <c r="N4" s="7">
-        <v>335038</v>
+        <v>313489</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>15904</v>
+        <v>15146</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>638</v>
       </c>
       <c r="I5" s="7">
-        <v>365373</v>
+        <v>329329</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>654</v>
       </c>
       <c r="N5" s="7">
-        <v>381278</v>
+        <v>344476</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>174</v>
       </c>
       <c r="D6" s="7">
-        <v>163059</v>
+        <v>159967</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>904</v>
       </c>
       <c r="I6" s="7">
-        <v>553256</v>
+        <v>497997</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>1078</v>
       </c>
       <c r="N6" s="7">
-        <v>716316</v>
+        <v>657965</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>1206</v>
       </c>
       <c r="D7" s="7">
-        <v>1454023</v>
+        <v>1611768</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>1802</v>
       </c>
       <c r="I7" s="7">
-        <v>1416365</v>
+        <v>1368876</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>3008</v>
       </c>
       <c r="N7" s="7">
-        <v>2870388</v>
+        <v>2980643</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>62</v>
       </c>
       <c r="D8" s="7">
-        <v>93015</v>
+        <v>97899</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>423</v>
       </c>
       <c r="I8" s="7">
-        <v>394416</v>
+        <v>465924</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>485</v>
       </c>
       <c r="N8" s="7">
-        <v>487431</v>
+        <v>563823</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1268</v>
       </c>
       <c r="D9" s="7">
-        <v>1547038</v>
+        <v>1709667</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>2225</v>
       </c>
       <c r="I9" s="7">
-        <v>1810781</v>
+        <v>1834800</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>3493</v>
       </c>
       <c r="N9" s="7">
-        <v>3357819</v>
+        <v>3544466</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>460</v>
       </c>
       <c r="D10" s="7">
-        <v>497345</v>
+        <v>481348</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>733</v>
       </c>
       <c r="I10" s="7">
-        <v>544819</v>
+        <v>505042</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>1193</v>
       </c>
       <c r="N10" s="7">
-        <v>1042164</v>
+        <v>986390</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>15146</v>
+        <v>14987</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>30076</v>
+        <v>28336</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>48</v>
       </c>
       <c r="N11" s="7">
-        <v>45222</v>
+        <v>43323</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>470</v>
       </c>
       <c r="D12" s="7">
-        <v>512491</v>
+        <v>496335</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>771</v>
       </c>
       <c r="I12" s="7">
-        <v>574895</v>
+        <v>533378</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1241</v>
       </c>
       <c r="N12" s="7">
-        <v>1087386</v>
+        <v>1029713</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>1824</v>
       </c>
       <c r="D13" s="7">
-        <v>2098522</v>
+        <v>2237936</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>2801</v>
       </c>
       <c r="I13" s="7">
-        <v>2149067</v>
+        <v>2042585</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>4625</v>
       </c>
       <c r="N13" s="7">
-        <v>4247589</v>
+        <v>4280521</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>88</v>
       </c>
       <c r="D14" s="7">
-        <v>124066</v>
+        <v>128033</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>1099</v>
       </c>
       <c r="I14" s="7">
-        <v>789865</v>
+        <v>823589</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>1187</v>
       </c>
       <c r="N14" s="7">
-        <v>913931</v>
+        <v>951622</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>1912</v>
       </c>
       <c r="D15" s="7">
-        <v>2222588</v>
+        <v>2365969</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>3900</v>
       </c>
       <c r="I15" s="7">
-        <v>2938932</v>
+        <v>2866174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>5812</v>
       </c>
       <c r="N15" s="7">
-        <v>5161520</v>
+        <v>5232143</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
